--- a/AverTest/test_Homepage/PDFFileNameData/FileName.xlsx
+++ b/AverTest/test_Homepage/PDFFileNameData/FileName.xlsx
@@ -412,7 +412,7 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>test_HomePageElements_08_February_2022_05_44PM.pdf</t>
+          <t>test_HomePageElements_09_February_2022_06_22PM.pdf</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">

--- a/AverTest/test_Homepage/PDFFileNameData/FileName.xlsx
+++ b/AverTest/test_Homepage/PDFFileNameData/FileName.xlsx
@@ -412,7 +412,7 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>test_HomePageElements_09_February_2022_06_22PM.pdf</t>
+          <t>test_HomePageElements_02_March_2022_06_29PM.pdf</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
@@ -422,12 +422,12 @@
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>This test scenario is to verify all the Elements present at Homepage of application</t>
+          <t>This test scenario is to verify all the Elements present and their working at Homepage</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>Pass</t>
+          <t>Fail</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
